--- a/data/Serie_Grupo_C.xlsx
+++ b/data/Serie_Grupo_C.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fibr1\Google Drive\IA369\T3\gui\ia369_t3\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19035" windowHeight="7470" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="19032" windowHeight="7476"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="25" r:id="rId1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="211">
   <si>
     <t>Região</t>
   </si>
@@ -346,34 +351,19 @@
     <t>Taxa de mortalidade infantil</t>
   </si>
   <si>
-    <t xml:space="preserve">C.1.1 </t>
-  </si>
-  <si>
     <t>Taxa de mortalidade infantil neonatal precoce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.1.2 </t>
   </si>
   <si>
     <t>Taxa de mortalidade infantil neonatal tardia</t>
   </si>
   <si>
-    <t xml:space="preserve">C.1.3 </t>
-  </si>
-  <si>
     <t>Taxa de mortalidade infantil pós-neonatal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.2 </t>
   </si>
   <si>
     <t>Taxa de mortalidade perinatal</t>
   </si>
   <si>
     <t>C.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.3 </t>
   </si>
   <si>
     <t>Razão de mortalidade materna</t>
@@ -385,43 +375,10 @@
     <t>Distribuição de óbitos de morte materna</t>
   </si>
   <si>
-    <t xml:space="preserve">C.4 </t>
-  </si>
-  <si>
     <t>Mortalidade proporcional por grupos de causas</t>
   </si>
   <si>
-    <t xml:space="preserve">C.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.6 </t>
-  </si>
-  <si>
     <t>C.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.17 </t>
   </si>
   <si>
     <t>1. Nas tabulações por faixa etária, estão suprimidos os casos com idade ignorada.</t>
@@ -472,9 +429,6 @@
     <t>Região/grupo de causa</t>
   </si>
   <si>
-    <t>Região/tipo de causa mal definida</t>
-  </si>
-  <si>
     <t>Região/tipo de doença do aparelho circulatório.</t>
   </si>
   <si>
@@ -512,9 +466,6 @@
   </si>
   <si>
     <t>Taxa de mortalidade específica por neoplasias malignas</t>
-  </si>
-  <si>
-    <t>Taxa de mortalidade específica por causas externas</t>
   </si>
   <si>
     <t>Taxa de mortalidade específica por doenças do aparelho circulatório</t>
@@ -678,11 +629,56 @@
   <si>
     <t>Homicídios e intervanções legais</t>
   </si>
+  <si>
+    <t>C.1.1</t>
+  </si>
+  <si>
+    <t>C.1.2</t>
+  </si>
+  <si>
+    <t>C.1.3</t>
+  </si>
+  <si>
+    <t>C.2</t>
+  </si>
+  <si>
+    <t>C.3</t>
+  </si>
+  <si>
+    <t>C.4</t>
+  </si>
+  <si>
+    <t>C.5</t>
+  </si>
+  <si>
+    <t>C.6</t>
+  </si>
+  <si>
+    <t>C.8</t>
+  </si>
+  <si>
+    <t>C.10</t>
+  </si>
+  <si>
+    <t>C.11</t>
+  </si>
+  <si>
+    <t>C.12</t>
+  </si>
+  <si>
+    <t>C.14</t>
+  </si>
+  <si>
+    <t>C.15</t>
+  </si>
+  <si>
+    <t>C.17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -942,6 +938,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -949,7 +948,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -987,9 +986,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,9 +1021,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,9 +1073,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1233,18 +1266,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>101</v>
       </c>
@@ -1252,164 +1287,156 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="59" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="59" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B10" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="B11" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>120</v>
-      </c>
       <c r="B13" s="59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="59" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1426,36 +1453,36 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="8.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="16" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="16"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="15" width="8.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="16"/>
+    <col min="18" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6">
         <v>1996</v>
@@ -1506,28 +1533,60 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C5" s="14">
+        <v>67.5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>62.7</v>
+      </c>
+      <c r="E5" s="14">
+        <v>71</v>
+      </c>
+      <c r="F5" s="14">
+        <v>75.2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H5" s="14">
+        <v>73.5</v>
+      </c>
+      <c r="I5" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K5" s="14">
+        <v>73.7</v>
+      </c>
+      <c r="L5" s="14">
+        <v>71.8</v>
+      </c>
+      <c r="M5" s="14">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N5" s="14">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O5" s="14">
+        <v>63.2</v>
+      </c>
+      <c r="P5" s="30">
+        <v>66.7</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>39</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>64</v>
       </c>
@@ -1633,7 +1692,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>96</v>
       </c>
@@ -1686,7 +1745,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1766,7 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
@@ -1760,7 +1819,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +1872,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>96</v>
       </c>
@@ -1866,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1946,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -1940,7 +1999,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +2052,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>96</v>
       </c>
@@ -2046,7 +2105,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2126,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>39</v>
       </c>
@@ -2120,7 +2179,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
@@ -2173,7 +2232,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>96</v>
       </c>
@@ -2226,7 +2285,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2306,7 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
@@ -2300,7 +2359,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>64</v>
       </c>
@@ -2353,7 +2412,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>96</v>
       </c>
@@ -2406,7 +2465,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2486,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2539,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2592,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>96</v>
       </c>
@@ -2586,9 +2645,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2607,9 +2666,9 @@
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2628,7 +2687,7 @@
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -2649,14 +2708,14 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2678,32 +2737,32 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="4" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="4" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="36.5546875" style="4" customWidth="1"/>
+    <col min="2" max="21" width="7.6640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6">
         <v>1990</v>
@@ -2772,9 +2831,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -2799,7 +2858,7 @@
       <c r="V5" s="54"/>
       <c r="W5" s="54"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -2870,7 +2929,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -2941,7 +3000,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
@@ -3012,7 +3071,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
@@ -3083,7 +3142,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -3154,7 +3213,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -3225,7 +3284,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -3296,7 +3355,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3382,7 @@
       <c r="V13" s="56"/>
       <c r="W13" s="56"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
@@ -3394,7 +3453,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3465,7 +3524,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -3536,7 +3595,7 @@
         <v>25.31</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -3607,7 +3666,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -3678,7 +3737,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -3749,7 +3808,7 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -3820,7 +3879,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -3847,7 +3906,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="56"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3918,7 +3977,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
@@ -3989,7 +4048,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
@@ -4060,7 +4119,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -4131,7 +4190,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +4261,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>43</v>
       </c>
@@ -4273,7 +4332,7 @@
         <v>15.89</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
@@ -4344,7 +4403,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +4430,7 @@
       <c r="V29" s="56"/>
       <c r="W29" s="56"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>44</v>
       </c>
@@ -4442,7 +4501,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
@@ -4513,7 +4572,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
@@ -4584,7 +4643,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
@@ -4655,7 +4714,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
@@ -4726,7 +4785,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -4797,7 +4856,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>46</v>
       </c>
@@ -4868,7 +4927,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
@@ -4895,7 +4954,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="56"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -4966,7 +5025,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
@@ -5037,7 +5096,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>41</v>
       </c>
@@ -5108,7 +5167,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>42</v>
       </c>
@@ -5179,7 +5238,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>45</v>
       </c>
@@ -5250,7 +5309,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
@@ -5321,7 +5380,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>46</v>
       </c>
@@ -5392,7 +5451,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -5419,7 +5478,7 @@
       <c r="V45" s="56"/>
       <c r="W45" s="56"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -5490,7 +5549,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5620,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>41</v>
       </c>
@@ -5632,7 +5691,7 @@
         <v>28.58</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>42</v>
       </c>
@@ -5703,7 +5762,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>45</v>
       </c>
@@ -5774,7 +5833,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -5845,7 +5904,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>46</v>
       </c>
@@ -5916,32 +5975,32 @@
         <v>19.79</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
@@ -5962,36 +6021,34 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.7109375" style="4" customWidth="1"/>
-    <col min="22" max="23" width="8.7109375" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="8.6640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="8.6640625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>145</v>
-      </c>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
       <c r="B4" s="6">
         <v>1990</v>
       </c>
@@ -6059,34 +6116,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="C5" s="22">
+        <v>14.2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>13.4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>13.4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>11.7</v>
+      </c>
+      <c r="G5" s="22">
+        <v>10.7</v>
+      </c>
+      <c r="H5" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I5" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="J5" s="22">
+        <v>9.4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>9</v>
+      </c>
+      <c r="L5" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M5" s="22">
+        <v>7.7</v>
+      </c>
+      <c r="N5" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="O5" s="22">
+        <v>7.1</v>
+      </c>
+      <c r="P5" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="S5" s="22">
+        <v>2.7</v>
+      </c>
+      <c r="T5" s="22">
+        <v>2.6</v>
+      </c>
+      <c r="U5" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="V5" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W5" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>50</v>
       </c>
@@ -6157,7 +6258,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>51</v>
       </c>
@@ -6228,7 +6329,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>97</v>
       </c>
@@ -6299,7 +6400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6427,7 @@
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>50</v>
       </c>
@@ -6397,7 +6498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>51</v>
       </c>
@@ -6468,7 +6569,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>97</v>
       </c>
@@ -6539,7 +6640,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -6566,7 +6667,7 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>50</v>
       </c>
@@ -6637,7 +6738,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>51</v>
       </c>
@@ -6708,7 +6809,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
@@ -6779,7 +6880,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -6806,7 +6907,7 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>50</v>
       </c>
@@ -6877,7 +6978,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -6948,7 +7049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>97</v>
       </c>
@@ -7019,7 +7120,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -7046,7 +7147,7 @@
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
@@ -7117,7 +7218,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>51</v>
       </c>
@@ -7188,7 +7289,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>97</v>
       </c>
@@ -7259,7 +7360,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>6</v>
       </c>
@@ -7286,7 +7387,7 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>50</v>
       </c>
@@ -7357,7 +7458,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>51</v>
       </c>
@@ -7428,7 +7529,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>97</v>
       </c>
@@ -7499,17 +7600,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -7536,17 +7637,17 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>90</v>
       </c>
@@ -7570,30 +7671,30 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="7" style="4" customWidth="1"/>
     <col min="22" max="23" width="7" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -7664,9 +7765,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8">
         <v>10.8</v>
@@ -7735,7 +7836,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -7806,7 +7907,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -7877,7 +7978,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -7948,7 +8049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -8019,7 +8120,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -8090,17 +8191,17 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -8127,12 +8228,12 @@
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -8156,29 +8257,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -8249,12 +8350,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8">
         <v>8.8000000000000007</v>
@@ -8320,7 +8421,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -8391,7 +8492,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -8462,7 +8563,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -8533,7 +8634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -8604,7 +8705,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -8675,21 +8776,21 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -8716,12 +8817,12 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -8745,32 +8846,32 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="4" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="21" width="7.6640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B4" s="47">
         <v>1990</v>
@@ -8839,9 +8940,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -8866,7 +8967,7 @@
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
@@ -8937,7 +9038,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>59</v>
       </c>
@@ -9008,7 +9109,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
@@ -9079,7 +9180,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>41</v>
       </c>
@@ -9150,7 +9251,7 @@
         <v>174.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -9177,7 +9278,7 @@
       <c r="V10" s="49"/>
       <c r="W10" s="49"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>58</v>
       </c>
@@ -9248,7 +9349,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
@@ -9319,7 +9420,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
@@ -9390,7 +9491,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>41</v>
       </c>
@@ -9461,7 +9562,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
@@ -9488,7 +9589,7 @@
       <c r="V15" s="49"/>
       <c r="W15" s="49"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>58</v>
       </c>
@@ -9559,7 +9660,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>59</v>
       </c>
@@ -9630,7 +9731,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>89</v>
       </c>
@@ -9701,7 +9802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>41</v>
       </c>
@@ -9772,7 +9873,7 @@
         <v>161.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -9799,7 +9900,7 @@
       <c r="V20" s="49"/>
       <c r="W20" s="49"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>58</v>
       </c>
@@ -9870,7 +9971,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>59</v>
       </c>
@@ -9941,7 +10042,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>89</v>
       </c>
@@ -10012,7 +10113,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>41</v>
       </c>
@@ -10083,7 +10184,7 @@
         <v>195.7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
@@ -10110,7 +10211,7 @@
       <c r="V25" s="49"/>
       <c r="W25" s="49"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>58</v>
       </c>
@@ -10181,7 +10282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>59</v>
       </c>
@@ -10252,7 +10353,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>89</v>
       </c>
@@ -10323,7 +10424,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>41</v>
       </c>
@@ -10394,7 +10495,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>6</v>
       </c>
@@ -10421,7 +10522,7 @@
       <c r="V30" s="49"/>
       <c r="W30" s="49"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
@@ -10492,7 +10593,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>59</v>
       </c>
@@ -10563,7 +10664,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>89</v>
       </c>
@@ -10634,7 +10735,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>41</v>
       </c>
@@ -10705,23 +10806,23 @@
         <v>143.80000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H35" s="16"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H36" s="16"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>7</v>
       </c>
@@ -10748,22 +10849,22 @@
       <c r="V37" s="30"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -10787,32 +10888,32 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="4" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="21" width="7.6640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B4" s="47">
         <v>1990</v>
@@ -10881,9 +10982,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -10908,9 +11009,9 @@
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B6" s="8">
         <v>20.100000000000001</v>
@@ -10979,9 +11080,9 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B7" s="8">
         <v>22.2</v>
@@ -11050,7 +11151,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>63</v>
       </c>
@@ -11121,7 +11222,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -11192,7 +11293,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>92</v>
       </c>
@@ -11263,7 +11364,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>93</v>
       </c>
@@ -11334,7 +11435,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -11361,9 +11462,9 @@
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B13" s="8">
         <v>14.9</v>
@@ -11432,9 +11533,9 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B14" s="8">
         <v>20.2</v>
@@ -11503,7 +11604,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>63</v>
       </c>
@@ -11574,7 +11675,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>91</v>
       </c>
@@ -11645,7 +11746,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>92</v>
       </c>
@@ -11716,7 +11817,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>93</v>
       </c>
@@ -11787,7 +11888,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
@@ -11814,9 +11915,9 @@
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B20" s="8">
         <v>12.1</v>
@@ -11885,9 +11986,9 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B21" s="8">
         <v>14.9</v>
@@ -11956,7 +12057,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>63</v>
       </c>
@@ -12027,7 +12128,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>91</v>
       </c>
@@ -12098,7 +12199,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>92</v>
       </c>
@@ -12169,7 +12270,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>93</v>
       </c>
@@ -12240,7 +12341,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -12267,9 +12368,9 @@
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B27" s="8">
         <v>23.7</v>
@@ -12338,9 +12439,9 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B28" s="8">
         <v>30.3</v>
@@ -12409,7 +12510,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
@@ -12480,7 +12581,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
@@ -12551,7 +12652,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>92</v>
       </c>
@@ -12622,7 +12723,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>93</v>
       </c>
@@ -12693,7 +12794,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
@@ -12720,9 +12821,9 @@
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B34" s="8">
         <v>25.2</v>
@@ -12791,9 +12892,9 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B35" s="8">
         <v>14.9</v>
@@ -12862,7 +12963,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>63</v>
       </c>
@@ -12933,7 +13034,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>91</v>
       </c>
@@ -13004,7 +13105,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>92</v>
       </c>
@@ -13075,7 +13176,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>93</v>
       </c>
@@ -13146,7 +13247,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>6</v>
       </c>
@@ -13173,9 +13274,9 @@
       <c r="V40" s="23"/>
       <c r="W40" s="23"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B41" s="8">
         <v>25.3</v>
@@ -13244,9 +13345,9 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B42" s="8">
         <v>20.8</v>
@@ -13315,7 +13416,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>63</v>
       </c>
@@ -13386,7 +13487,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>91</v>
       </c>
@@ -13457,7 +13558,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>92</v>
       </c>
@@ -13528,7 +13629,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>93</v>
       </c>
@@ -13599,23 +13700,23 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H47" s="16"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H48" s="16"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>7</v>
       </c>
@@ -13642,22 +13743,22 @@
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
@@ -13674,39 +13775,39 @@
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="4" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="38.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="7.6640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B4" s="47">
         <v>1990</v>
@@ -13775,34 +13876,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="22">
+        <v>56.1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>56.9</v>
+      </c>
+      <c r="D5" s="22">
+        <v>59.2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>59.6</v>
+      </c>
+      <c r="F5" s="22">
+        <v>61.1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>61.9</v>
+      </c>
+      <c r="H5" s="22">
+        <v>65</v>
+      </c>
+      <c r="I5" s="22">
+        <v>66.5</v>
+      </c>
+      <c r="J5" s="22">
+        <v>68</v>
+      </c>
+      <c r="K5" s="22">
+        <v>69.8</v>
+      </c>
+      <c r="L5" s="22">
+        <v>70.3</v>
+      </c>
+      <c r="M5" s="22">
+        <v>72</v>
+      </c>
+      <c r="N5" s="22">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O5" s="22">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="P5" s="22">
+        <v>76.8</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>79.2</v>
+      </c>
+      <c r="R5" s="22">
+        <v>82.2</v>
+      </c>
+      <c r="S5" s="22">
+        <v>84</v>
+      </c>
+      <c r="T5" s="22">
+        <v>87.1</v>
+      </c>
+      <c r="U5" s="22">
+        <v>88.6</v>
+      </c>
+      <c r="V5" s="23">
+        <v>92.4</v>
+      </c>
+      <c r="W5" s="23">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>65</v>
       </c>
@@ -13873,7 +14018,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>66</v>
       </c>
@@ -13944,7 +14089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>67</v>
       </c>
@@ -14015,7 +14160,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>68</v>
       </c>
@@ -14086,7 +14231,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>69</v>
       </c>
@@ -14157,7 +14302,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>70</v>
       </c>
@@ -14228,7 +14373,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>71</v>
       </c>
@@ -14299,7 +14444,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>94</v>
       </c>
@@ -14370,7 +14515,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>95</v>
       </c>
@@ -14441,7 +14586,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -14468,7 +14613,7 @@
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
@@ -14539,7 +14684,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -14610,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>67</v>
       </c>
@@ -14681,7 +14826,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>68</v>
       </c>
@@ -14752,7 +14897,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
@@ -14823,7 +14968,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>70</v>
       </c>
@@ -14894,7 +15039,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>71</v>
       </c>
@@ -14965,7 +15110,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>94</v>
       </c>
@@ -15036,7 +15181,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>95</v>
       </c>
@@ -15107,7 +15252,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
@@ -15134,7 +15279,7 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
@@ -15205,7 +15350,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>66</v>
       </c>
@@ -15276,7 +15421,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>67</v>
       </c>
@@ -15347,7 +15492,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>68</v>
       </c>
@@ -15418,7 +15563,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>69</v>
       </c>
@@ -15489,7 +15634,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>70</v>
       </c>
@@ -15560,7 +15705,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>71</v>
       </c>
@@ -15631,7 +15776,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>94</v>
       </c>
@@ -15702,7 +15847,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>95</v>
       </c>
@@ -15773,7 +15918,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
@@ -15800,7 +15945,7 @@
       <c r="V35" s="23"/>
       <c r="W35" s="23"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>65</v>
       </c>
@@ -15871,7 +16016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>66</v>
       </c>
@@ -15942,7 +16087,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>67</v>
       </c>
@@ -16013,7 +16158,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>68</v>
       </c>
@@ -16084,7 +16229,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>69</v>
       </c>
@@ -16155,7 +16300,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>70</v>
       </c>
@@ -16226,7 +16371,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>71</v>
       </c>
@@ -16297,7 +16442,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>94</v>
       </c>
@@ -16368,7 +16513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>95</v>
       </c>
@@ -16439,7 +16584,7 @@
         <v>108.9</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>5</v>
       </c>
@@ -16466,7 +16611,7 @@
       <c r="V45" s="23"/>
       <c r="W45" s="23"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>65</v>
       </c>
@@ -16537,7 +16682,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>66</v>
       </c>
@@ -16608,7 +16753,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>67</v>
       </c>
@@ -16679,7 +16824,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>68</v>
       </c>
@@ -16750,7 +16895,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>69</v>
       </c>
@@ -16821,7 +16966,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>70</v>
       </c>
@@ -16892,7 +17037,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>71</v>
       </c>
@@ -16963,7 +17108,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>94</v>
       </c>
@@ -17034,7 +17179,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>95</v>
       </c>
@@ -17105,7 +17250,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>6</v>
       </c>
@@ -17132,7 +17277,7 @@
       <c r="V55" s="23"/>
       <c r="W55" s="23"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>65</v>
       </c>
@@ -17203,7 +17348,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>66</v>
       </c>
@@ -17274,7 +17419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>67</v>
       </c>
@@ -17345,7 +17490,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>68</v>
       </c>
@@ -17416,7 +17561,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>69</v>
       </c>
@@ -17487,7 +17632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>70</v>
       </c>
@@ -17558,7 +17703,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>71</v>
       </c>
@@ -17629,7 +17774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>94</v>
       </c>
@@ -17700,7 +17845,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>95</v>
       </c>
@@ -17771,23 +17916,23 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H65" s="16"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H66" s="16"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>7</v>
       </c>
@@ -17814,27 +17959,27 @@
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -17859,29 +18004,29 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="7" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="17" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -17931,9 +18076,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8">
         <v>16.899999999999999</v>
@@ -17981,7 +18126,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -18031,7 +18176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -18081,7 +18226,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -18131,7 +18276,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -18181,7 +18326,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -18231,9 +18376,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -18251,9 +18396,9 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -18271,7 +18416,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -18291,42 +18436,42 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -18348,25 +18493,25 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="21" width="7.6640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -18391,9 +18536,9 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -18418,9 +18563,9 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B4" s="17">
         <v>1990</v>
@@ -18489,34 +18634,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="I5" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="M5" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>21</v>
+      </c>
+      <c r="O5" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>21.6</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="R5" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="T5" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="U5" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="V5" s="20">
+        <v>28.8</v>
+      </c>
+      <c r="W5" s="20">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
@@ -18587,7 +18776,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>55</v>
       </c>
@@ -18658,7 +18847,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>56</v>
       </c>
@@ -18729,7 +18918,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -18756,7 +18945,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>57</v>
       </c>
@@ -18827,7 +19016,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>55</v>
       </c>
@@ -18898,7 +19087,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -18969,7 +19158,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -18996,7 +19185,7 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -19067,7 +19256,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>55</v>
       </c>
@@ -19138,7 +19327,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>56</v>
       </c>
@@ -19209,7 +19398,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -19236,7 +19425,7 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -19307,7 +19496,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>55</v>
       </c>
@@ -19378,7 +19567,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>56</v>
       </c>
@@ -19449,7 +19638,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -19476,7 +19665,7 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>57</v>
       </c>
@@ -19547,7 +19736,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>55</v>
       </c>
@@ -19618,7 +19807,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>56</v>
       </c>
@@ -19689,7 +19878,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>6</v>
       </c>
@@ -19716,7 +19905,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>57</v>
       </c>
@@ -19787,7 +19976,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -19858,7 +20047,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>56</v>
       </c>
@@ -19929,21 +20118,21 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -19970,7 +20159,7 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>72</v>
       </c>
@@ -19997,7 +20186,7 @@
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -20024,7 +20213,7 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -20051,7 +20240,7 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -20095,34 +20284,34 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="4" customWidth="1"/>
     <col min="260" max="260" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -20193,9 +20382,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>47.09</v>
@@ -20264,7 +20453,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -20335,7 +20524,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -20406,7 +20595,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -20477,7 +20666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -20548,7 +20737,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -20619,7 +20808,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -20646,7 +20835,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -20673,24 +20862,24 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -20709,25 +20898,25 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A29:A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="21" width="7.6640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -20752,9 +20941,9 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -20779,9 +20968,9 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B4" s="17">
         <v>1990</v>
@@ -20850,34 +21039,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H5" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="I5" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="P5" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>6</v>
+      </c>
+      <c r="R5" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="S5" s="8">
+        <v>6</v>
+      </c>
+      <c r="T5" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="U5" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="V5" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="W5" s="23">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
@@ -20948,7 +21181,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>55</v>
       </c>
@@ -21019,7 +21252,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>56</v>
       </c>
@@ -21090,7 +21323,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -21117,7 +21350,7 @@
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>57</v>
       </c>
@@ -21188,7 +21421,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>55</v>
       </c>
@@ -21259,7 +21492,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -21330,7 +21563,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -21357,7 +21590,7 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -21428,7 +21661,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>55</v>
       </c>
@@ -21499,7 +21732,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>56</v>
       </c>
@@ -21570,7 +21803,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -21597,7 +21830,7 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -21668,7 +21901,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>55</v>
       </c>
@@ -21739,7 +21972,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>56</v>
       </c>
@@ -21810,7 +22043,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -21837,7 +22070,7 @@
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>57</v>
       </c>
@@ -21908,7 +22141,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>55</v>
       </c>
@@ -21979,7 +22212,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>56</v>
       </c>
@@ -22050,7 +22283,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>6</v>
       </c>
@@ -22077,7 +22310,7 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>57</v>
       </c>
@@ -22148,7 +22381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -22219,7 +22452,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>56</v>
       </c>
@@ -22290,21 +22523,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -22331,7 +22564,7 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>72</v>
       </c>
@@ -22358,7 +22591,7 @@
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -22385,7 +22618,7 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -22412,7 +22645,7 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -22459,23 +22692,23 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="1" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="1" customWidth="1"/>
     <col min="260" max="260" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:260" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -22737,9 +22970,9 @@
       <c r="IY2" s="4"/>
       <c r="IZ2" s="4"/>
     </row>
-    <row r="3" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -23001,7 +23234,7 @@
       <c r="IY3" s="4"/>
       <c r="IZ3" s="4"/>
     </row>
-    <row r="4" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -23309,9 +23542,9 @@
       <c r="IY4" s="4"/>
       <c r="IZ4" s="4"/>
     </row>
-    <row r="5" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>18.78</v>
@@ -23617,7 +23850,7 @@
       <c r="IY5" s="4"/>
       <c r="IZ5" s="4"/>
     </row>
-    <row r="6" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -23925,7 +24158,7 @@
       <c r="IY6" s="4"/>
       <c r="IZ6" s="4"/>
     </row>
-    <row r="7" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -24233,7 +24466,7 @@
       <c r="IY7" s="4"/>
       <c r="IZ7" s="4"/>
     </row>
-    <row r="8" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -24541,7 +24774,7 @@
       <c r="IY8" s="4"/>
       <c r="IZ8" s="4"/>
     </row>
-    <row r="9" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -24849,7 +25082,7 @@
       <c r="IY9" s="4"/>
       <c r="IZ9" s="4"/>
     </row>
-    <row r="10" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -25157,7 +25390,7 @@
       <c r="IY10" s="4"/>
       <c r="IZ10" s="4"/>
     </row>
-    <row r="11" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -25421,7 +25654,7 @@
       <c r="IY11" s="4"/>
       <c r="IZ11" s="4"/>
     </row>
-    <row r="12" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -25685,7 +25918,7 @@
       <c r="IY12" s="4"/>
       <c r="IZ12" s="4"/>
     </row>
-    <row r="13" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -25949,7 +26182,7 @@
       <c r="IY13" s="4"/>
       <c r="IZ13" s="4"/>
     </row>
-    <row r="14" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
@@ -26213,9 +26446,9 @@
       <c r="IY14" s="4"/>
       <c r="IZ14" s="4"/>
     </row>
-    <row r="15" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -26477,9 +26710,9 @@
       <c r="IY15" s="4"/>
       <c r="IZ15" s="4"/>
     </row>
-    <row r="16" spans="1:260" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -26754,29 +26987,29 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="7.6640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -26801,9 +27034,9 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -26828,9 +27061,9 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B4" s="17">
         <v>1990</v>
@@ -26899,34 +27132,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8">
+        <v>59.2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>53.6</v>
+      </c>
+      <c r="D5" s="8">
+        <v>56.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>61.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>62.8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>60</v>
+      </c>
+      <c r="H5" s="8">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8">
+        <v>50.6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>52</v>
+      </c>
+      <c r="K5" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>45</v>
+      </c>
+      <c r="M5" s="8">
+        <v>45</v>
+      </c>
+      <c r="N5" s="8">
+        <v>45.9</v>
+      </c>
+      <c r="O5" s="8">
+        <v>47</v>
+      </c>
+      <c r="P5" s="8">
+        <v>47.3</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>46</v>
+      </c>
+      <c r="R5" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="S5" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>50</v>
+      </c>
+      <c r="U5" s="8">
+        <v>53.6</v>
+      </c>
+      <c r="V5" s="23">
+        <v>55.6</v>
+      </c>
+      <c r="W5" s="23">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>81</v>
       </c>
@@ -26997,7 +27274,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>82</v>
       </c>
@@ -27068,7 +27345,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>83</v>
       </c>
@@ -27139,7 +27416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>84</v>
       </c>
@@ -27210,7 +27487,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>85</v>
       </c>
@@ -27281,7 +27558,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>86</v>
       </c>
@@ -27352,7 +27629,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>87</v>
       </c>
@@ -27423,7 +27700,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>88</v>
       </c>
@@ -27494,7 +27771,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>98</v>
       </c>
@@ -27565,7 +27842,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>99</v>
       </c>
@@ -27636,7 +27913,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -27663,7 +27940,7 @@
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>81</v>
       </c>
@@ -27734,7 +28011,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>82</v>
       </c>
@@ -27805,7 +28082,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>83</v>
       </c>
@@ -27876,7 +28153,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>84</v>
       </c>
@@ -27947,7 +28224,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>85</v>
       </c>
@@ -28018,7 +28295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>86</v>
       </c>
@@ -28089,7 +28366,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>87</v>
       </c>
@@ -28160,7 +28437,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>88</v>
       </c>
@@ -28231,7 +28508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>98</v>
       </c>
@@ -28302,7 +28579,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>99</v>
       </c>
@@ -28373,7 +28650,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -28400,7 +28677,7 @@
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>81</v>
       </c>
@@ -28471,7 +28748,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>82</v>
       </c>
@@ -28542,7 +28819,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>83</v>
       </c>
@@ -28613,7 +28890,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>84</v>
       </c>
@@ -28684,7 +28961,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>85</v>
       </c>
@@ -28755,7 +29032,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>86</v>
       </c>
@@ -28826,7 +29103,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>87</v>
       </c>
@@ -28897,7 +29174,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>88</v>
       </c>
@@ -28968,7 +29245,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>98</v>
       </c>
@@ -29039,7 +29316,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>99</v>
       </c>
@@ -29110,7 +29387,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
@@ -29137,7 +29414,7 @@
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
     </row>
-    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>81</v>
       </c>
@@ -29208,7 +29485,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>82</v>
       </c>
@@ -29279,7 +29556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>83</v>
       </c>
@@ -29350,7 +29627,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>84</v>
       </c>
@@ -29421,7 +29698,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>85</v>
       </c>
@@ -29492,7 +29769,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>86</v>
       </c>
@@ -29563,7 +29840,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>87</v>
       </c>
@@ -29634,7 +29911,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>88</v>
       </c>
@@ -29705,7 +29982,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>98</v>
       </c>
@@ -29776,7 +30053,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>99</v>
       </c>
@@ -29847,7 +30124,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
@@ -29874,7 +30151,7 @@
       <c r="V49" s="23"/>
       <c r="W49" s="23"/>
     </row>
-    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>81</v>
       </c>
@@ -29945,7 +30222,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>82</v>
       </c>
@@ -30016,7 +30293,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>83</v>
       </c>
@@ -30087,7 +30364,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>84</v>
       </c>
@@ -30158,7 +30435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>85</v>
       </c>
@@ -30229,7 +30506,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>86</v>
       </c>
@@ -30300,7 +30577,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>87</v>
       </c>
@@ -30371,7 +30648,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>88</v>
       </c>
@@ -30442,7 +30719,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>98</v>
       </c>
@@ -30513,7 +30790,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>99</v>
       </c>
@@ -30584,7 +30861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>6</v>
       </c>
@@ -30611,7 +30888,7 @@
       <c r="V60" s="40"/>
       <c r="W60" s="40"/>
     </row>
-    <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>81</v>
       </c>
@@ -30682,7 +30959,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>82</v>
       </c>
@@ -30753,7 +31030,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>83</v>
       </c>
@@ -30824,7 +31101,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>84</v>
       </c>
@@ -30895,7 +31172,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>85</v>
       </c>
@@ -30966,7 +31243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>86</v>
       </c>
@@ -31037,7 +31314,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>87</v>
       </c>
@@ -31108,7 +31385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>88</v>
       </c>
@@ -31179,7 +31456,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>98</v>
       </c>
@@ -31250,7 +31527,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>99</v>
       </c>
@@ -31321,21 +31598,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="V71" s="16"/>
       <c r="W71" s="16"/>
     </row>
-    <row r="72" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="16"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>7</v>
       </c>
@@ -31362,7 +31639,7 @@
       <c r="V73" s="28"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
         <v>72</v>
       </c>
@@ -31389,7 +31666,7 @@
       <c r="V74" s="16"/>
       <c r="W74" s="16"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>60</v>
       </c>
@@ -31416,7 +31693,7 @@
       <c r="V75" s="16"/>
       <c r="W75" s="16"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>61</v>
       </c>
@@ -31443,7 +31720,7 @@
       <c r="V76" s="16"/>
       <c r="W76" s="16"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>62</v>
       </c>
@@ -31482,7 +31759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -31490,31 +31767,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="4" customWidth="1"/>
     <col min="260" max="260" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -31585,9 +31862,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>17.690000000000001</v>
@@ -31656,7 +31933,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -31727,7 +32004,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -31798,7 +32075,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -31869,7 +32146,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -31940,7 +32217,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -32011,7 +32288,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -32038,7 +32315,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -32065,24 +32342,24 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -32101,37 +32378,35 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="4" customWidth="1"/>
     <col min="260" max="260" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>1990</v>
       </c>
@@ -32199,9 +32474,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>5.43</v>
@@ -32270,7 +32545,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -32341,7 +32616,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -32412,7 +32687,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -32483,7 +32758,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -32554,7 +32829,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -32625,7 +32900,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -32652,7 +32927,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -32679,24 +32954,24 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -32715,37 +32990,35 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="4" customWidth="1"/>
     <col min="260" max="260" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>1990</v>
       </c>
@@ -32813,9 +33086,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>23.13</v>
@@ -32884,7 +33157,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -32955,7 +33228,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -33026,7 +33299,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -33097,7 +33370,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -33168,7 +33441,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -33239,7 +33512,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -33266,7 +33539,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -33293,19 +33566,19 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -33324,37 +33597,35 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="259" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="259" width="9.109375" style="4" customWidth="1"/>
     <col min="260" max="260" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>1990</v>
       </c>
@@ -33422,9 +33693,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>23.96</v>
@@ -33493,7 +33764,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -33564,7 +33835,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -33635,7 +33906,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -33706,7 +33977,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -33777,7 +34048,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -33848,7 +34119,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -33875,7 +34146,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -33902,24 +34173,24 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -33940,33 +34211,33 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="7" style="4" customWidth="1"/>
-    <col min="17" max="252" width="9.140625" style="4" customWidth="1"/>
+    <col min="17" max="252" width="9.109375" style="4" customWidth="1"/>
     <col min="253" max="253" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="254" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B4" s="6">
         <v>1997</v>
@@ -34014,9 +34285,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>1</v>
@@ -34064,7 +34335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -34114,7 +34385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -34164,7 +34435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -34214,7 +34485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -34264,7 +34535,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
@@ -34314,7 +34585,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
@@ -34364,7 +34635,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -34414,7 +34685,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
@@ -34464,7 +34735,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -34514,7 +34785,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -34564,7 +34835,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
@@ -34614,7 +34885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -34664,7 +34935,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
@@ -34714,7 +34985,7 @@
         <v>14.14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
@@ -34734,7 +35005,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
@@ -34754,17 +35025,17 @@
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -34788,31 +35059,31 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="258" width="9.140625" style="4" customWidth="1"/>
+    <col min="24" max="258" width="9.109375" style="4" customWidth="1"/>
     <col min="259" max="259" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="260" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -34883,9 +35154,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="37">
         <v>53.7</v>
@@ -34954,7 +35225,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -35025,7 +35296,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -35096,7 +35367,7 @@
         <v>20.72</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -35167,7 +35438,7 @@
         <v>15.01</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -35238,7 +35509,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -35309,7 +35580,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -35336,7 +35607,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -35363,29 +35634,29 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -35404,36 +35675,34 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
       <c r="B4" s="6">
         <v>1990</v>
       </c>
@@ -35501,9 +35770,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="42">
         <v>143.19</v>
@@ -35572,7 +35841,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -35643,7 +35912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -35714,7 +35983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -35785,7 +36054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -35856,7 +36125,7 @@
         <v>60.32</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
@@ -35927,7 +36196,7 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
@@ -35998,7 +36267,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -36069,7 +36338,7 @@
         <v>44.43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
@@ -36140,7 +36409,7 @@
         <v>51.67</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -36211,7 +36480,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -36282,7 +36551,7 @@
         <v>48.65</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
@@ -36353,7 +36622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -36424,7 +36693,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
@@ -36495,7 +36764,7 @@
         <v>43.71</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
@@ -36522,7 +36791,7 @@
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
@@ -36549,57 +36818,57 @@
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
